--- a/Data/Inflow/DischargeCalcs_FlowandSlug_2019.csv.xlsx
+++ b/Data/Inflow/DischargeCalcs_FlowandSlug_2019.csv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwoel\Dropbox\Thesis\Thesis\DataAnalysis\Data\Inflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwoel\Dropbox\Thesis\Data\Inflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A46904B-58BC-4C88-AF53-EDF159B8BEF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDC99FA-BA53-4FB7-A589-A1DD69F34E84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2912832B-1125-484D-82B6-875EABED70D6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t>F01</t>
-  </si>
-  <si>
-    <t>F01 Section 1</t>
-  </si>
-  <si>
-    <t>F01 Section 2</t>
-  </si>
-  <si>
-    <t>F01 Section 3</t>
   </si>
   <si>
     <t>Discharge_m3s</t>
@@ -443,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ECBB0F-0BB8-449C-8C59-CA61A504C25D}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -632,7 +623,7 @@
         <v>33.43656</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -646,11 +637,11 @@
         <v>2.4262079999999998E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D25" si="1">C11*1000</f>
+        <f t="shared" ref="D11:D23" si="1">C11*1000</f>
         <v>24.262079999999997</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -668,7 +659,7 @@
         <v>157.18536</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -686,7 +677,7 @@
         <v>76.788263999999998</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -704,7 +695,7 @@
         <v>36.819839999999999</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -722,7 +713,7 @@
         <v>120.60936</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -740,7 +731,7 @@
         <v>139.62888000000001</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -758,7 +749,7 @@
         <v>141.33575999999999</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -776,7 +767,7 @@
         <v>100.8126</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -784,17 +775,17 @@
         <v>43584</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>0.14089380000000001</v>
+        <v>0.19183350000000002</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>140.89380000000003</v>
+        <v>191.83350000000002</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -802,17 +793,17 @@
         <v>43584</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>4.3815E-2</v>
+        <v>1.7610000000000001E-2</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>43.814999999999998</v>
+        <v>17.61</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -820,17 +811,17 @@
         <v>43584</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>7.1247000000000003E-3</v>
+        <v>9.5700000000000004E-3</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>7.1247000000000007</v>
+        <v>9.57</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -838,17 +829,17 @@
         <v>43584</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>1.7610000000000001E-2</v>
+        <v>0.1266592</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>17.61</v>
+        <v>126.6592</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -856,53 +847,17 @@
         <v>43584</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>9.5700000000000004E-3</v>
+        <v>0.21265829999999999</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>9.57</v>
+        <v>212.6583</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>43584</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>0.1266592</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>126.6592</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>43584</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>0.21265829999999999</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>212.6583</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
